--- a/C_61/C_61_pick_up.xlsx
+++ b/C_61/C_61_pick_up.xlsx
@@ -21,7 +21,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -32,10 +32,6 @@
     <font>
       <name val="等线"/>
       <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="等线"/>
       <sz val="11"/>
     </font>
   </fonts>
@@ -66,18 +62,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -443,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,362 +658,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>NEW</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>597811370</v>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>【2022虚拟歌手创作赛】XStudio原创歌曲《梦的信仰》</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>106630763</v>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>乐喵MrJ</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t>2022/06/26 18:00</t>
-        </is>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3" t="n">
-        <v>291</v>
-      </c>
-      <c r="K3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="M3" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="N3" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="O3" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="P3" s="3" t="n">
-        <v>44</v>
-      </c>
-      <c r="Q3" s="3" t="n">
-        <v>2121</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>15.12</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>0.913</v>
-      </c>
-      <c r="U3" s="1" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
-      </c>
-      <c r="V3" s="1" t="inlineStr">
-        <is>
-          <t>NEW!</t>
-        </is>
-      </c>
-      <c r="W3" s="1" t="inlineStr"/>
-      <c r="X3" s="5" t="n">
-        <v>27</v>
-      </c>
-      <c r="Y3" s="1" t="inlineStr">
-        <is>
-          <t>X Studio  |  曲/编/词/调/混:乐喵Mr.J</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="n">
-        <v>38</v>
-      </c>
-      <c r="B4" s="6" t="inlineStr">
-        <is>
-          <t>NEW</t>
-        </is>
-      </c>
-      <c r="C4" s="6" t="n">
-        <v>641993251</v>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>【塞缪尔Samuel/江上曜/玄武/弥望】時を越えて（cover QUELL）</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="n">
-        <v>30046291</v>
-      </c>
-      <c r="F4" s="6" t="inlineStr">
-        <is>
-          <t>雨森優希</t>
-        </is>
-      </c>
-      <c r="G4" s="7" t="inlineStr">
-        <is>
-          <t>2022/06/08 00:00</t>
-        </is>
-      </c>
-      <c r="H4" s="6" t="n">
-        <v>306</v>
-      </c>
-      <c r="I4" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="8" t="n">
-        <v>184</v>
-      </c>
-      <c r="K4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="M4" s="8" t="n">
-        <v>13</v>
-      </c>
-      <c r="N4" s="8" t="n">
-        <v>12</v>
-      </c>
-      <c r="O4" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="P4" s="8" t="n">
-        <v>33</v>
-      </c>
-      <c r="Q4" s="8" t="n">
-        <v>2087</v>
-      </c>
-      <c r="R4" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="S4" s="9" t="n">
-        <v>27.174</v>
-      </c>
-      <c r="T4" s="9" t="n">
-        <v>0.839</v>
-      </c>
-      <c r="U4" s="6" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
-      </c>
-      <c r="V4" s="6" t="inlineStr">
-        <is>
-          <t>NEW!</t>
-        </is>
-      </c>
-      <c r="W4" s="6" t="inlineStr"/>
-      <c r="X4" s="10" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y4" s="6" t="inlineStr">
-        <is>
-          <t>跨引擎  |  原作:時を越えて-QUELL  |  调:雨森優希,中野然子  混:中野然子  工程:忆想诗  视:雨森優希</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="6" t="n">
-        <v>42</v>
-      </c>
-      <c r="B5" s="6" t="inlineStr">
-        <is>
-          <t>NEW</t>
-        </is>
-      </c>
-      <c r="C5" s="6" t="n">
-        <v>727631514</v>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>【琴歌】それを愛と呼ぶだけ/只是将之称为爱【中文填词】</t>
-        </is>
-      </c>
-      <c r="E5" s="6" t="n">
-        <v>299628314</v>
-      </c>
-      <c r="F5" s="6" t="inlineStr">
-        <is>
-          <t>-_氧化_-</t>
-        </is>
-      </c>
-      <c r="G5" s="7" t="inlineStr">
-        <is>
-          <t>2022/06/21 16:10</t>
-        </is>
-      </c>
-      <c r="H5" s="6" t="n">
-        <v>215</v>
-      </c>
-      <c r="I5" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="8" t="n">
-        <v>106</v>
-      </c>
-      <c r="K5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="M5" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="N5" s="8" t="n">
-        <v>12</v>
-      </c>
-      <c r="O5" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" s="8" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q5" s="8" t="n">
-        <v>1730</v>
-      </c>
-      <c r="R5" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="S5" s="9" t="n">
-        <v>37.736</v>
-      </c>
-      <c r="T5" s="9" t="n">
-        <v>0.612</v>
-      </c>
-      <c r="U5" s="6" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
-      </c>
-      <c r="V5" s="6" t="inlineStr">
-        <is>
-          <t>NEW!</t>
-        </is>
-      </c>
-      <c r="W5" s="6" t="inlineStr"/>
-      <c r="X5" s="10" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y5" s="6" t="inlineStr">
-        <is>
-          <t>袅袅虚拟歌手  |  原作:  |  曲:まふまふ  词:uni_浅羽（@uni_浅羽</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>NEW</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>897785969</v>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>【XStudio原创季／2022虚拟歌姬创作赛】恩宠【XStudio原创曲】（CC字幕）</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>37468111</v>
-      </c>
-      <c r="F6" s="1" t="inlineStr">
-        <is>
-          <t>听说本人わ某刘某です</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>2022/06/26 03:03</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3" t="n">
-        <v>149</v>
-      </c>
-      <c r="K6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="M6" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="N6" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="O6" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="P6" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q6" s="3" t="n">
-        <v>1070</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>18.792</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>0.644</v>
-      </c>
-      <c r="U6" s="1" t="inlineStr">
-        <is>
-          <t>——</t>
-        </is>
-      </c>
-      <c r="V6" s="1" t="inlineStr">
-        <is>
-          <t>NEW!</t>
-        </is>
-      </c>
-      <c r="W6" s="1" t="inlineStr"/>
-      <c r="X6" s="5" t="n">
-        <v>47</v>
-      </c>
-      <c r="Y6" s="1" t="inlineStr">
-        <is>
-          <t>X Studio  |  曲/编:某刘某  词:乌拉  封:Aeuna（Konachan）</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
